--- a/BackTest/2019-10-26 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-26 BackTest ETZ.xlsx
@@ -451,17 +451,13 @@
         <v>28.65999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>28.69999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>28.71999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>28.75999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>28.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>28.62</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +661,14 @@
         <v>28.57999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +696,14 @@
         <v>28.62</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,22 +731,14 @@
         <v>28.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>29</v>
-      </c>
-      <c r="K10" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -830,22 +766,14 @@
         <v>28.75999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,22 +801,14 @@
         <v>28.91999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,22 +836,14 @@
         <v>28.99999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,22 +871,14 @@
         <v>29.03999999999998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +906,14 @@
         <v>28.93999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,22 +941,14 @@
         <v>28.93999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,22 +976,14 @@
         <v>28.85999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1131,22 +1011,14 @@
         <v>28.81999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1174,22 +1046,14 @@
         <v>28.71999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1217,22 +1081,14 @@
         <v>28.77999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1260,22 +1116,14 @@
         <v>28.83999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>29</v>
-      </c>
-      <c r="K21" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1303,22 +1151,14 @@
         <v>28.9</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>29</v>
-      </c>
-      <c r="K22" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1346,22 +1186,14 @@
         <v>28.91999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>29</v>
-      </c>
-      <c r="K23" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1389,22 +1221,14 @@
         <v>28.9</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K24" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1432,22 +1256,14 @@
         <v>28.9</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>29</v>
-      </c>
-      <c r="K25" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1475,22 +1291,14 @@
         <v>28.91999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>29</v>
-      </c>
-      <c r="K26" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1326,14 @@
         <v>28.91999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>29</v>
-      </c>
-      <c r="K27" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1561,22 +1361,14 @@
         <v>28.93999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>29</v>
-      </c>
-      <c r="K28" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1604,22 +1396,14 @@
         <v>29.05999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1647,22 +1431,14 @@
         <v>29.09999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1690,22 +1466,14 @@
         <v>29.07999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>29</v>
-      </c>
-      <c r="K31" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1733,22 +1501,14 @@
         <v>29.01999999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>29</v>
-      </c>
-      <c r="K32" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1776,22 +1536,14 @@
         <v>29.01999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1819,22 +1571,14 @@
         <v>29.01999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1862,22 +1606,14 @@
         <v>28.99999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1905,22 +1641,14 @@
         <v>28.99999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>29</v>
-      </c>
-      <c r="K36" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1948,22 +1676,14 @@
         <v>29.09999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1991,22 +1711,14 @@
         <v>29.13999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2034,22 +1746,14 @@
         <v>29.2</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2077,22 +1781,14 @@
         <v>29.24</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2120,22 +1816,14 @@
         <v>29.32</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K41" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2163,22 +1851,14 @@
         <v>29.32</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2212,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2253,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2294,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2335,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2376,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2417,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2458,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2499,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2540,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2581,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2622,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2663,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2704,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2739,22 +2341,14 @@
         <v>28.99999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K56" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2782,22 +2376,14 @@
         <v>29.09999999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K57" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2825,22 +2411,14 @@
         <v>29.11999999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2868,22 +2446,14 @@
         <v>29.2</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2917,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2958,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2999,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3040,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3081,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3122,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3163,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3204,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3245,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3286,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3327,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3368,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3409,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3450,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3491,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3532,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3573,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3614,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3655,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3696,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3737,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3778,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3819,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3860,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3901,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3942,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3983,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4024,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4065,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4106,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4147,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4188,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4229,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4270,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4311,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4352,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4393,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4434,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4475,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4510,20 +3846,18 @@
         <v>29.11999999999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K99" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>29.1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4558,11 +3892,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4592,18 +3926,20 @@
         <v>29.15999999999999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K101" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -4639,14 +3975,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4680,14 +4010,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4715,20 +4039,18 @@
         <v>29.13999999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K104" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>29.1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4763,11 +4085,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -4797,14 +4119,16 @@
         <v>29.05999999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>29</v>
+      </c>
       <c r="K106" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4838,14 +4162,16 @@
         <v>29.07999999999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>29</v>
+      </c>
       <c r="K107" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4888,7 +4214,7 @@
         <v>29.2</v>
       </c>
       <c r="K108" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4922,14 +4248,16 @@
         <v>29.07999999999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K109" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4963,14 +4291,16 @@
         <v>29.11999999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>29</v>
+      </c>
       <c r="K110" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5004,14 +4334,16 @@
         <v>29.15999999999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K111" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5045,14 +4377,16 @@
         <v>29.15999999999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K112" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5086,14 +4420,16 @@
         <v>29.17999999999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K113" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5127,14 +4463,16 @@
         <v>29.31999999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>29.3</v>
+      </c>
       <c r="K114" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5168,14 +4506,16 @@
         <v>29.29999999999999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>29.7</v>
+      </c>
       <c r="K115" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5209,14 +4549,16 @@
         <v>29.37999999999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K116" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5250,14 +4592,16 @@
         <v>29.43999999999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>29.6</v>
+      </c>
       <c r="K117" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5298,7 +4642,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5339,7 +4683,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5380,7 +4724,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5421,7 +4765,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5462,7 +4806,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5503,7 +4847,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5544,7 +4888,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5585,7 +4929,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5626,7 +4970,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5667,7 +5011,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5708,7 +5052,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5749,7 +5093,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5790,7 +5134,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5831,7 +5175,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5872,7 +5216,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5913,7 +5257,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5954,7 +5298,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5995,7 +5339,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6036,7 +5380,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6077,7 +5421,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6118,7 +5462,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6159,7 +5503,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6200,7 +5544,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6241,7 +5585,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6282,7 +5626,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6323,7 +5667,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6364,7 +5708,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6405,7 +5749,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6446,7 +5790,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6487,7 +5831,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6528,7 +5872,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6569,7 +5913,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6610,7 +5954,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6651,7 +5995,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6692,7 +6036,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6733,7 +6077,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6774,7 +6118,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6811,19 +6155,19 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>1</v>
+        <v>1.139329896907217</v>
       </c>
     </row>
     <row r="156">
@@ -6855,14 +6199,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6896,14 +6234,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6934,19 +6266,13 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>1.092222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -6975,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -9772,14 +9098,20 @@
         <v>31.88000000000001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9814,7 +9146,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9842,14 +9178,20 @@
         <v>31.94</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9884,7 +9226,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9919,7 +9265,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9954,7 +9304,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9989,7 +9343,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10024,7 +9382,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10059,7 +9421,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10094,7 +9460,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10129,7 +9499,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10164,7 +9538,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10199,7 +9577,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10234,7 +9616,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10269,7 +9655,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10304,7 +9694,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10339,7 +9733,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10374,7 +9772,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10409,7 +9811,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10444,7 +9850,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10479,7 +9889,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10514,7 +9928,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10549,7 +9967,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10584,7 +10006,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +10045,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10654,7 +10084,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10689,7 +10123,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10724,7 +10162,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10759,7 +10201,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10794,7 +10240,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10829,7 +10279,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10864,7 +10318,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10899,7 +10357,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10934,7 +10396,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10969,7 +10435,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11004,7 +10474,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11039,7 +10513,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11074,7 +10552,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11109,7 +10591,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11144,7 +10630,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11179,7 +10669,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11214,7 +10708,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11249,7 +10747,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11284,7 +10786,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11319,7 +10825,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11354,7 +10864,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11389,7 +10903,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11424,7 +10942,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11459,7 +10981,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11494,7 +11020,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11529,7 +11059,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11564,7 +11098,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11599,7 +11137,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11634,7 +11176,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11669,7 +11215,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11704,7 +11254,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11739,7 +11293,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +11332,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11809,7 +11371,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11844,7 +11410,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11879,7 +11449,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11914,7 +11488,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11949,7 +11527,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11984,7 +11566,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12019,7 +11605,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12054,7 +11644,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12089,7 +11683,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12124,7 +11722,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12159,7 +11761,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12194,7 +11800,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12229,7 +11839,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12264,7 +11878,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12299,7 +11917,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12334,7 +11956,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12369,7 +11995,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12404,7 +12034,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12439,7 +12073,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12474,7 +12112,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12509,7 +12151,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12544,7 +12190,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12579,7 +12229,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12614,7 +12268,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12649,7 +12307,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12684,7 +12346,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12719,7 +12385,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12754,7 +12424,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12789,7 +12463,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12824,7 +12502,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12859,7 +12541,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12894,7 +12580,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +12619,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12964,7 +12658,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12999,7 +12697,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13034,7 +12736,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13069,7 +12775,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13104,7 +12814,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13139,7 +12853,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13174,7 +12892,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13209,7 +12931,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13244,7 +12970,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13279,7 +13009,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13314,7 +13048,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13349,7 +13087,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13384,7 +13126,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13419,7 +13165,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13454,7 +13204,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13489,7 +13243,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13524,7 +13282,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13559,7 +13321,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13594,7 +13360,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13629,7 +13399,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13664,7 +13438,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13699,7 +13477,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13734,7 +13516,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13769,7 +13555,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13804,7 +13594,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13839,7 +13633,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13874,7 +13672,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13909,7 +13711,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13944,7 +13750,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13979,7 +13789,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14014,7 +13828,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14049,7 +13867,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +13906,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14119,7 +13945,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14154,7 +13984,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14189,7 +14023,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14224,7 +14062,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14259,7 +14101,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14294,7 +14140,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14329,7 +14179,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14364,7 +14218,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14399,7 +14257,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14434,7 +14296,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14469,7 +14335,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14504,7 +14374,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14539,7 +14413,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14574,7 +14452,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14609,7 +14491,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14644,7 +14530,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14679,7 +14569,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14714,7 +14608,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14749,7 +14647,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14784,7 +14686,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14819,7 +14725,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14854,7 +14764,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14889,7 +14803,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14924,7 +14842,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14959,7 +14881,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14994,7 +14920,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15029,7 +14959,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15064,7 +14998,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15099,7 +15037,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15134,7 +15076,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15169,7 +15115,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15204,7 +15154,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15193,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15274,7 +15232,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15309,7 +15271,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15344,7 +15310,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15375,14 +15345,16 @@
         <v>0</v>
       </c>
       <c r="I399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
-      <c r="M399" t="n">
-        <v>1</v>
-      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">

--- a/BackTest/2019-10-26 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-26 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-123360.0949133333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-121331.6124133333</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>28.5</v>
@@ -521,7 +521,7 @@
         <v>-121331.6124133333</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>28.6</v>
@@ -562,7 +562,7 @@
         <v>-121351.6124133333</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>28.6</v>
@@ -603,7 +603,7 @@
         <v>-121082.5156133333</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>28.4</v>
@@ -644,7 +644,7 @@
         <v>-157106.7181133333</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>28.5</v>
@@ -685,7 +685,7 @@
         <v>-157106.7181133333</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>28.4</v>
@@ -726,7 +726,7 @@
         <v>-156955.7998133333</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>28.4</v>
@@ -767,7 +767,7 @@
         <v>-155955.7998133333</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>28.6</v>
@@ -808,7 +808,7 @@
         <v>-155955.7998133333</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>28.7</v>
@@ -849,7 +849,7 @@
         <v>-155944.7998133333</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>28.7</v>
@@ -890,7 +890,7 @@
         <v>-242787.8590133333</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>28.8</v>
@@ -931,7 +931,7 @@
         <v>-242776.8590133333</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>28.7</v>
@@ -972,7 +972,7 @@
         <v>-242776.8590133333</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>28.8</v>
@@ -1013,7 +1013,7 @@
         <v>-242776.8590133333</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>28.8</v>
@@ -1054,7 +1054,7 @@
         <v>-242776.8590133333</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>28.8</v>
@@ -1095,9 +1095,11 @@
         <v>-242776.8590133333</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J18" t="n">
         <v>28.5</v>
       </c>
@@ -1134,7 +1136,7 @@
         <v>-242876.8590133333</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>28.8</v>
@@ -1175,7 +1177,7 @@
         <v>-241076.5698133333</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>28.6</v>
@@ -1216,7 +1218,7 @@
         <v>-279076.5698133333</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>28.9</v>
@@ -1257,7 +1259,7 @@
         <v>-261866.8310133333</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>28.7</v>
@@ -1298,7 +1300,7 @@
         <v>-119092.7895133333</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>28.8</v>
@@ -1339,7 +1341,7 @@
         <v>-104379.1689133333</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>29</v>
@@ -1380,7 +1382,7 @@
         <v>-104379.1689133333</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>29.1</v>
@@ -1421,7 +1423,7 @@
         <v>78451.54278666672</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>29.1</v>
@@ -1462,7 +1464,7 @@
         <v>71147.05388666672</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>29.6</v>
@@ -1503,9 +1505,11 @@
         <v>-9404.997013333283</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J28" t="n">
         <v>28.5</v>
       </c>
@@ -1542,9 +1546,11 @@
         <v>-9254.997013333283</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J29" t="n">
         <v>28.5</v>
       </c>
@@ -1581,9 +1587,11 @@
         <v>-9522.219313333282</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>29.5</v>
+      </c>
       <c r="J30" t="n">
         <v>28.5</v>
       </c>
@@ -1620,9 +1628,11 @@
         <v>-9512.219313333282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J31" t="n">
         <v>28.5</v>
       </c>
@@ -1659,9 +1669,11 @@
         <v>-82218.76111333328</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J32" t="n">
         <v>28.5</v>
       </c>
@@ -1698,9 +1710,11 @@
         <v>-82207.76111333328</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>29</v>
+      </c>
       <c r="J33" t="n">
         <v>28.5</v>
       </c>
@@ -1737,9 +1751,11 @@
         <v>-82207.76111333328</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J34" t="n">
         <v>28.5</v>
       </c>
@@ -1776,9 +1792,11 @@
         <v>-87949.50361333328</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J35" t="n">
         <v>28.5</v>
       </c>
@@ -1815,9 +1833,11 @@
         <v>-23150.05611333327</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J36" t="n">
         <v>28.5</v>
       </c>
@@ -1854,9 +1874,11 @@
         <v>-23150.05611333327</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>29</v>
+      </c>
       <c r="J37" t="n">
         <v>28.5</v>
       </c>
@@ -1893,9 +1915,11 @@
         <v>-23195.86431333327</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>29</v>
+      </c>
       <c r="J38" t="n">
         <v>28.5</v>
       </c>
@@ -1932,9 +1956,11 @@
         <v>-22940.86431333327</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J39" t="n">
         <v>28.5</v>
       </c>
@@ -1971,9 +1997,11 @@
         <v>-22940.86431333327</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>29</v>
+      </c>
       <c r="J40" t="n">
         <v>28.5</v>
       </c>
@@ -2010,9 +2038,11 @@
         <v>-23221.87731333327</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>29</v>
+      </c>
       <c r="J41" t="n">
         <v>28.5</v>
       </c>
@@ -2049,9 +2079,11 @@
         <v>-22939.87731333327</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J42" t="n">
         <v>28.5</v>
       </c>
@@ -2088,9 +2120,11 @@
         <v>-23223.28871333327</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>29</v>
+      </c>
       <c r="J43" t="n">
         <v>28.5</v>
       </c>
@@ -2127,9 +2161,11 @@
         <v>-23223.28871333327</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J44" t="n">
         <v>28.5</v>
       </c>
@@ -2166,9 +2202,11 @@
         <v>-109035.1528133333</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J45" t="n">
         <v>28.5</v>
       </c>
@@ -2205,9 +2243,11 @@
         <v>-109025.1528133333</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J46" t="n">
         <v>28.5</v>
       </c>
@@ -2244,9 +2284,11 @@
         <v>-110576.5029133333</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J47" t="n">
         <v>28.5</v>
       </c>
@@ -2283,9 +2325,11 @@
         <v>-110576.5029133333</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J48" t="n">
         <v>28.5</v>
       </c>
@@ -2322,9 +2366,11 @@
         <v>-110566.5029133333</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J49" t="n">
         <v>28.5</v>
       </c>
@@ -2361,9 +2407,11 @@
         <v>-110566.5029133333</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J50" t="n">
         <v>28.5</v>
       </c>
@@ -2400,9 +2448,11 @@
         <v>-113266.1429133333</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J51" t="n">
         <v>28.5</v>
       </c>
@@ -2439,9 +2489,11 @@
         <v>-113256.1429133333</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J52" t="n">
         <v>28.5</v>
       </c>
@@ -2478,9 +2530,11 @@
         <v>-111956.1429133333</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J53" t="n">
         <v>28.5</v>
       </c>
@@ -2517,9 +2571,11 @@
         <v>-111956.1429133333</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>29</v>
+      </c>
       <c r="J54" t="n">
         <v>28.5</v>
       </c>
@@ -2556,9 +2612,11 @@
         <v>-111332.1429133333</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>29</v>
+      </c>
       <c r="J55" t="n">
         <v>28.5</v>
       </c>
@@ -2595,9 +2653,11 @@
         <v>-218997.4660133333</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J56" t="n">
         <v>28.5</v>
       </c>
@@ -2634,9 +2694,11 @@
         <v>-218997.4660133333</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J57" t="n">
         <v>28.5</v>
       </c>
@@ -2673,9 +2735,11 @@
         <v>-226725.4310133333</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J58" t="n">
         <v>28.5</v>
       </c>
@@ -2712,9 +2776,11 @@
         <v>-226725.4310133333</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J59" t="n">
         <v>28.5</v>
       </c>
@@ -2751,9 +2817,11 @@
         <v>-226545.4310133333</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J60" t="n">
         <v>28.5</v>
       </c>
@@ -2790,9 +2858,11 @@
         <v>-226545.4310133333</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J61" t="n">
         <v>28.5</v>
       </c>
@@ -2829,9 +2899,11 @@
         <v>-226509.4310133333</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J62" t="n">
         <v>28.5</v>
       </c>
@@ -2868,9 +2940,11 @@
         <v>-244111.7278133333</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J63" t="n">
         <v>28.5</v>
       </c>
@@ -2907,9 +2981,11 @@
         <v>-243898.9848133333</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J64" t="n">
         <v>28.5</v>
       </c>
@@ -2946,9 +3022,11 @@
         <v>-267516.6113133333</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J65" t="n">
         <v>28.5</v>
       </c>
@@ -2985,7 +3063,7 @@
         <v>-267782.0023133333</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>28.4</v>
@@ -3026,7 +3104,7 @@
         <v>-267756.0023133333</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>28.3</v>
@@ -3067,7 +3145,7 @@
         <v>-255751.1688133333</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>28.7</v>
@@ -3108,9 +3186,11 @@
         <v>-133590.8508256621</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J69" t="n">
         <v>28.5</v>
       </c>
@@ -3147,9 +3227,11 @@
         <v>-133601.8508256621</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J70" t="n">
         <v>28.5</v>
       </c>
@@ -3186,9 +3268,11 @@
         <v>-133591.8508256621</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J71" t="n">
         <v>28.5</v>
       </c>
@@ -3225,9 +3309,11 @@
         <v>-133591.8508256621</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J72" t="n">
         <v>28.5</v>
       </c>
@@ -3264,9 +3350,11 @@
         <v>-133591.8508256621</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J73" t="n">
         <v>28.5</v>
       </c>
@@ -3342,9 +3430,11 @@
         <v>-213043.2624256621</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J75" t="n">
         <v>28.5</v>
       </c>
@@ -3381,9 +3471,11 @@
         <v>-213043.2624256621</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J76" t="n">
         <v>28.5</v>
       </c>
@@ -3420,9 +3512,11 @@
         <v>-209319.0603256621</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J77" t="n">
         <v>28.5</v>
       </c>
@@ -3459,9 +3553,11 @@
         <v>-219676.4603256621</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J78" t="n">
         <v>28.5</v>
       </c>
@@ -3498,9 +3594,11 @@
         <v>-219126.4603256621</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J79" t="n">
         <v>28.5</v>
       </c>
@@ -3537,9 +3635,11 @@
         <v>-219126.4603256621</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>29</v>
+      </c>
       <c r="J80" t="n">
         <v>28.5</v>
       </c>
@@ -3615,9 +3715,11 @@
         <v>-219126.4603256621</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>29</v>
+      </c>
       <c r="J82" t="n">
         <v>28.5</v>
       </c>
@@ -3654,9 +3756,11 @@
         <v>-231126.4603256621</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>29</v>
+      </c>
       <c r="J83" t="n">
         <v>28.5</v>
       </c>
@@ -3693,9 +3797,11 @@
         <v>-231115.4603256621</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>28.5</v>
+      </c>
       <c r="J84" t="n">
         <v>28.5</v>
       </c>
@@ -3771,9 +3877,11 @@
         <v>-232933.4603256621</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J86" t="n">
         <v>28.5</v>
       </c>
@@ -3849,9 +3957,11 @@
         <v>-217062.4603256621</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J88" t="n">
         <v>28.5</v>
       </c>
@@ -3888,9 +3998,11 @@
         <v>-217051.4603256621</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J89" t="n">
         <v>28.5</v>
       </c>
@@ -3927,9 +4039,11 @@
         <v>-227758.9430256621</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J90" t="n">
         <v>28.5</v>
       </c>
@@ -3966,9 +4080,11 @@
         <v>-247302.8206256621</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>29</v>
+      </c>
       <c r="J91" t="n">
         <v>28.5</v>
       </c>
@@ -4005,9 +4121,11 @@
         <v>-247291.8206256621</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J92" t="n">
         <v>28.5</v>
       </c>
@@ -4044,9 +4162,11 @@
         <v>-247291.8206256621</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J93" t="n">
         <v>28.5</v>
       </c>
@@ -4083,9 +4203,11 @@
         <v>-247291.8206256621</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J94" t="n">
         <v>28.5</v>
       </c>
@@ -4707,9 +4829,11 @@
         <v>-330958.3427133333</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J110" t="n">
         <v>28.5</v>
       </c>
@@ -4785,9 +4909,11 @@
         <v>-339333.9208133333</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J112" t="n">
         <v>28.5</v>
       </c>
@@ -4863,9 +4989,11 @@
         <v>-339602.8556133333</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J114" t="n">
         <v>28.5</v>
       </c>
@@ -6228,9 +6356,11 @@
         <v>-384470.7871133333</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J149" t="n">
         <v>28.5</v>
       </c>
@@ -6267,9 +6397,11 @@
         <v>-384370.7871133333</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J150" t="n">
         <v>28.5</v>
       </c>
@@ -6306,9 +6438,11 @@
         <v>-384370.7871133333</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J151" t="n">
         <v>28.5</v>
       </c>
@@ -6462,9 +6596,11 @@
         <v>-397580.3364133333</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>29</v>
+      </c>
       <c r="J155" t="n">
         <v>28.5</v>
       </c>
@@ -6813,9 +6949,11 @@
         <v>-491075.3664133333</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J164" t="n">
         <v>28.5</v>
       </c>
@@ -6852,9 +6990,11 @@
         <v>-491075.3664133333</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>29</v>
+      </c>
       <c r="J165" t="n">
         <v>28.5</v>
       </c>
@@ -6891,9 +7031,11 @@
         <v>-477075.3664133333</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>29</v>
+      </c>
       <c r="J166" t="n">
         <v>28.5</v>
       </c>
@@ -6930,9 +7072,11 @@
         <v>-477075.3664133333</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J167" t="n">
         <v>28.5</v>
       </c>
@@ -7008,9 +7152,11 @@
         <v>-500687.1109133333</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>29</v>
+      </c>
       <c r="J169" t="n">
         <v>28.5</v>
       </c>
@@ -7047,9 +7193,11 @@
         <v>-500687.1109133333</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J170" t="n">
         <v>28.5</v>
       </c>
@@ -7086,9 +7234,11 @@
         <v>-500687.1109133333</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J171" t="n">
         <v>28.5</v>
       </c>
@@ -7125,9 +7275,11 @@
         <v>-486858.8068886757</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J172" t="n">
         <v>28.5</v>
       </c>
@@ -7164,9 +7316,11 @@
         <v>-481058.8068886757</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J173" t="n">
         <v>28.5</v>
       </c>
@@ -7710,9 +7864,11 @@
         <v>-652955.7652640182</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J187" t="n">
         <v>28.5</v>
       </c>
@@ -8490,7 +8646,7 @@
         <v>-86742.05116401818</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
@@ -8498,15 +8654,13 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.135350877192983</v>
-      </c>
-      <c r="M207" t="n">
-        <v>1.007017543859649</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8531,11 +8685,17 @@
         <v>-146823.3118640182</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8564,11 +8724,17 @@
         <v>-146823.3118640182</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8600,8 +8766,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8633,8 +8805,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8666,8 +8844,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8699,8 +8883,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8732,8 +8922,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8765,8 +8961,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8795,11 +8997,17 @@
         <v>515570.5114271583</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8828,11 +9036,17 @@
         <v>515548.5114271583</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8861,11 +9075,17 @@
         <v>617889.5776271583</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8897,8 +9117,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8930,8 +9156,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8963,8 +9195,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8996,8 +9234,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9029,8 +9273,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9062,8 +9312,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9095,8 +9351,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9128,8 +9390,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9161,8 +9429,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9194,8 +9468,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9227,8 +9507,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9257,11 +9543,17 @@
         <v>657193.3599829447</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9290,11 +9582,17 @@
         <v>657234.2333829447</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9323,11 +9621,17 @@
         <v>648752.3774829448</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9356,11 +9660,17 @@
         <v>648752.3774829448</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9389,11 +9699,17 @@
         <v>648752.3774829448</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9425,8 +9741,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9458,8 +9780,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9491,8 +9819,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9521,11 +9855,17 @@
         <v>1173781.659191768</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9554,11 +9894,17 @@
         <v>1035597.315091768</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9587,15 +9933,23 @@
         <v>1010291.407591768</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>1.209035087719298</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1.007017543859649</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9620,7 +9974,7 @@
         <v>976084.4019917684</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9653,7 +10007,7 @@
         <v>976055.2201917684</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9686,7 +10040,7 @@
         <v>939328.2523917684</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9719,7 +10073,7 @@
         <v>946943.2567917684</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9752,7 +10106,7 @@
         <v>946943.2567917684</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9785,7 +10139,7 @@
         <v>1112203.293891768</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9818,7 +10172,7 @@
         <v>1069710.816991769</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9851,7 +10205,7 @@
         <v>1125698.838591769</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9884,7 +10238,7 @@
         <v>1151073.531291769</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9917,7 +10271,7 @@
         <v>1119577.302991769</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9950,7 +10304,7 @@
         <v>1119577.302991769</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9983,7 +10337,7 @@
         <v>1097670.960791769</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10016,7 +10370,7 @@
         <v>1094047.269991769</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10049,7 +10403,7 @@
         <v>1090542.521991769</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10082,7 +10436,7 @@
         <v>1090542.521991769</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10115,7 +10469,7 @@
         <v>1049568.548391769</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10148,7 +10502,7 @@
         <v>1049579.548391769</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10181,7 +10535,7 @@
         <v>1045871.392891769</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10214,7 +10568,7 @@
         <v>1045871.392891769</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10247,7 +10601,7 @@
         <v>1066138.943716159</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10280,7 +10634,7 @@
         <v>1066138.943716159</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10313,7 +10667,7 @@
         <v>1069966.811991769</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10346,7 +10700,7 @@
         <v>1076008.365991769</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10379,7 +10733,7 @@
         <v>1076008.365991769</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10412,7 +10766,7 @@
         <v>1087611.998791769</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10445,7 +10799,7 @@
         <v>1063861.108891769</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10478,7 +10832,7 @@
         <v>1063861.108891769</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10511,7 +10865,7 @@
         <v>1063861.108891769</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10544,7 +10898,7 @@
         <v>1063861.108891769</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10577,7 +10931,7 @@
         <v>1037982.701667378</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10610,7 +10964,7 @@
         <v>1061872.708867379</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -11039,7 +11393,7 @@
         <v>460156.9044673785</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11072,7 +11426,7 @@
         <v>461096.9669673785</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11105,7 +11459,7 @@
         <v>454507.1691673785</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11138,7 +11492,7 @@
         <v>484614.9603673785</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11171,7 +11525,7 @@
         <v>475840.4530673785</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11204,7 +11558,7 @@
         <v>564347.5447673785</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11237,7 +11591,7 @@
         <v>576182.0785673785</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11270,7 +11624,7 @@
         <v>557059.3149673785</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11303,7 +11657,7 @@
         <v>551708.4250673786</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11336,7 +11690,7 @@
         <v>551719.4250673786</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11369,7 +11723,7 @@
         <v>549973.4250673786</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11402,7 +11756,7 @@
         <v>549973.4250673786</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11435,7 +11789,7 @@
         <v>549973.4250673786</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11468,7 +11822,7 @@
         <v>549973.4250673786</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11501,7 +11855,7 @@
         <v>550701.5643673786</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11534,7 +11888,7 @@
         <v>530671.7643673785</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11567,7 +11921,7 @@
         <v>537313.5610673785</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11600,7 +11954,7 @@
         <v>544345.6417673785</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11633,7 +11987,7 @@
         <v>543340.6417673785</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11666,7 +12020,7 @@
         <v>553836.8693673785</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11732,7 +12086,7 @@
         <v>685560.7433673786</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11765,7 +12119,7 @@
         <v>610857.9839673786</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11798,7 +12152,7 @@
         <v>615683.5480673786</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11831,7 +12185,7 @@
         <v>615953.5480673786</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11864,7 +12218,7 @@
         <v>697587.7665673785</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11897,7 +12251,7 @@
         <v>697472.2252673785</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11930,7 +12284,7 @@
         <v>641367.2133673785</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11963,7 +12317,7 @@
         <v>682657.3541673785</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11996,7 +12350,7 @@
         <v>597834.3678673785</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12029,7 +12383,7 @@
         <v>597834.3678673785</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12062,7 +12416,7 @@
         <v>614877.5418673785</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12095,7 +12449,7 @@
         <v>614888.5418673785</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12128,7 +12482,7 @@
         <v>608109.2874673785</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12293,7 +12647,7 @@
         <v>692353.0074673785</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12326,7 +12680,7 @@
         <v>676023.7484673786</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12359,7 +12713,7 @@
         <v>616795.9161673785</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12392,7 +12746,7 @@
         <v>329308.6871673785</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12425,7 +12779,7 @@
         <v>580474.4600673786</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12458,7 +12812,7 @@
         <v>580044.3960673786</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12491,7 +12845,7 @@
         <v>580512.4860673785</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12524,7 +12878,7 @@
         <v>580523.4860673785</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12590,7 +12944,7 @@
         <v>554906.6960673785</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12656,7 +13010,7 @@
         <v>540963.9227673785</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12722,7 +13076,7 @@
         <v>537073.6544673785</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12755,7 +13109,7 @@
         <v>537293.5297673785</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12788,7 +13142,7 @@
         <v>537304.5297673785</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12821,7 +13175,7 @@
         <v>535068.7681673785</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12854,7 +13208,7 @@
         <v>495424.2057673785</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13019,7 +13373,7 @@
         <v>453767.1369673785</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13052,7 +13406,7 @@
         <v>281671.5028673785</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13085,7 +13439,7 @@
         <v>281681.5968673785</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13118,7 +13472,7 @@
         <v>282045.0234673785</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13415,7 +13769,7 @@
         <v>267963.0706673785</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14042,7 +14396,7 @@
         <v>193985.5164673786</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14075,7 +14429,7 @@
         <v>193985.5164673786</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14108,7 +14462,7 @@
         <v>193985.5164673786</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14141,7 +14495,7 @@
         <v>219232.6958673786</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14174,7 +14528,7 @@
         <v>209381.2488673786</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14207,7 +14561,7 @@
         <v>211648.4710673786</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14339,7 +14693,7 @@
         <v>206429.1890673786</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14438,7 +14792,7 @@
         <v>198342.3851673786</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14471,7 +14825,7 @@
         <v>198342.3851673786</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14537,7 +14891,7 @@
         <v>230009.1264673785</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14570,7 +14924,7 @@
         <v>182824.9775673785</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14603,7 +14957,7 @@
         <v>182824.9775673785</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14636,7 +14990,7 @@
         <v>182824.9775673785</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14669,7 +15023,7 @@
         <v>201343.4960673786</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14702,7 +15056,7 @@
         <v>193123.5253673785</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14735,7 +15089,7 @@
         <v>180209.4941673786</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14834,7 +15188,7 @@
         <v>147210.1894673786</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15131,7 +15485,7 @@
         <v>162148.0960673786</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15263,7 +15617,7 @@
         <v>162048.0960673786</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15494,7 +15848,7 @@
         <v>363815.6405827632</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15527,7 +15881,7 @@
         <v>350773.3618827632</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15989,7 +16343,7 @@
         <v>118543.5052827632</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16715,7 +17069,7 @@
         <v>803601.0370079076</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16748,7 +17102,7 @@
         <v>783601.0370079076</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16781,7 +17135,7 @@
         <v>783601.0370079076</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16814,7 +17168,7 @@
         <v>697131.7670079076</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16847,7 +17201,7 @@
         <v>697131.7670079076</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16880,7 +17234,7 @@
         <v>536826.5612079076</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16913,7 +17267,7 @@
         <v>394105.5612079076</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16946,7 +17300,7 @@
         <v>394105.5612079076</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16979,7 +17333,7 @@
         <v>394105.5612079076</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17012,7 +17366,7 @@
         <v>407220.3369079076</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17045,7 +17399,7 @@
         <v>407354.5911079076</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18101,7 +18455,7 @@
         <v>377105.6414079077</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18266,7 +18620,7 @@
         <v>342259.6414079077</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18299,7 +18653,7 @@
         <v>330069.4524079077</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18662,7 +19016,7 @@
         <v>296727.1231079077</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18728,7 +19082,7 @@
         <v>296979.6213079077</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18860,7 +19214,7 @@
         <v>273207.3560079077</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18893,7 +19247,7 @@
         <v>271473.5312079077</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18926,7 +19280,7 @@
         <v>271484.5312079077</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18959,7 +19313,7 @@
         <v>212433.9919079076</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18992,7 +19346,7 @@
         <v>212444.9919079076</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19025,7 +19379,7 @@
         <v>212455.9919079076</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19058,7 +19412,7 @@
         <v>212455.9919079076</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19091,7 +19445,7 @@
         <v>212455.9919079076</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19124,7 +19478,7 @@
         <v>212220.2019079076</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19157,7 +19511,7 @@
         <v>181773.7968079076</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19190,7 +19544,7 @@
         <v>183690.7968079076</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19256,7 +19610,7 @@
         <v>67413.06840790763</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19388,7 +19742,7 @@
         <v>67640.03720790763</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19421,7 +19775,7 @@
         <v>-76919.35859209237</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19454,7 +19808,7 @@
         <v>-72420.33749209237</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -21302,7 +21656,7 @@
         <v>-118604.5913920924</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21401,7 +21755,7 @@
         <v>-171416.3039920924</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21434,7 +21788,7 @@
         <v>-171416.3039920924</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21929,11 +22283,17 @@
         <v>-1159719.324992092</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21966,13 +22326,17 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
       <c r="M615" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-26 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>-121331.6124133333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>28.5</v>
       </c>
@@ -1464,11 +1462,9 @@
         <v>71147.05388666672</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>28.5</v>
       </c>
@@ -1505,11 +1501,9 @@
         <v>-9404.997013333283</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>28.5</v>
       </c>
@@ -1546,11 +1540,9 @@
         <v>-9254.997013333283</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>28.5</v>
       </c>
@@ -1587,11 +1579,9 @@
         <v>-9522.219313333282</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>28.5</v>
       </c>
@@ -1628,11 +1618,9 @@
         <v>-9512.219313333282</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>28.5</v>
       </c>
@@ -1669,11 +1657,9 @@
         <v>-82218.76111333328</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>28.5</v>
       </c>
@@ -1710,11 +1696,9 @@
         <v>-82207.76111333328</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>28.5</v>
       </c>
@@ -1751,11 +1735,9 @@
         <v>-82207.76111333328</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>28.5</v>
       </c>
@@ -1792,11 +1774,9 @@
         <v>-87949.50361333328</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>28.5</v>
       </c>
@@ -1833,11 +1813,9 @@
         <v>-23150.05611333327</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>28.5</v>
       </c>
@@ -1874,11 +1852,9 @@
         <v>-23150.05611333327</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>28.5</v>
       </c>
@@ -1915,11 +1891,9 @@
         <v>-23195.86431333327</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>28.5</v>
       </c>
@@ -1956,11 +1930,9 @@
         <v>-22940.86431333327</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>28.5</v>
       </c>
@@ -1997,11 +1969,9 @@
         <v>-22940.86431333327</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>28.5</v>
       </c>
@@ -2038,11 +2008,9 @@
         <v>-23221.87731333327</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>28.5</v>
       </c>
@@ -2120,11 +2088,9 @@
         <v>-23223.28871333327</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>28.5</v>
       </c>
@@ -2243,11 +2209,9 @@
         <v>-109025.1528133333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>28.5</v>
       </c>
@@ -2284,11 +2248,9 @@
         <v>-110576.5029133333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>28.5</v>
       </c>
@@ -2448,11 +2410,9 @@
         <v>-113266.1429133333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>28.5</v>
       </c>
@@ -2530,11 +2490,9 @@
         <v>-111956.1429133333</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>28.5</v>
       </c>
@@ -2571,11 +2529,9 @@
         <v>-111956.1429133333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>28.5</v>
       </c>
@@ -2612,11 +2568,9 @@
         <v>-111332.1429133333</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>28.5</v>
       </c>
@@ -2653,11 +2607,9 @@
         <v>-218997.4660133333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>28.5</v>
       </c>
@@ -2694,11 +2646,9 @@
         <v>-218997.4660133333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>28.5</v>
       </c>
@@ -2735,11 +2685,9 @@
         <v>-226725.4310133333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>28.5</v>
       </c>
@@ -2776,11 +2724,9 @@
         <v>-226725.4310133333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>28.5</v>
       </c>
@@ -2940,11 +2886,9 @@
         <v>-244111.7278133333</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>28.5</v>
       </c>
@@ -3227,11 +3171,9 @@
         <v>-133601.8508256621</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>28.5</v>
       </c>
@@ -3268,11 +3210,9 @@
         <v>-133591.8508256621</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>28.5</v>
       </c>
@@ -3309,11 +3249,9 @@
         <v>-133591.8508256621</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>28.5</v>
       </c>
@@ -3350,11 +3288,9 @@
         <v>-133591.8508256621</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>28.5</v>
       </c>
@@ -3430,11 +3366,9 @@
         <v>-213043.2624256621</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>28.5</v>
       </c>
@@ -3471,11 +3405,9 @@
         <v>-213043.2624256621</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>28.5</v>
       </c>
@@ -3512,11 +3444,9 @@
         <v>-209319.0603256621</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>28.5</v>
       </c>
@@ -3553,11 +3483,9 @@
         <v>-219676.4603256621</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>28.5</v>
       </c>
@@ -3635,11 +3563,9 @@
         <v>-219126.4603256621</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>28.5</v>
       </c>
@@ -3715,11 +3641,9 @@
         <v>-219126.4603256621</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>28.5</v>
       </c>
@@ -3756,11 +3680,9 @@
         <v>-231126.4603256621</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>28.5</v>
       </c>
@@ -3797,11 +3719,9 @@
         <v>-231115.4603256621</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>28.5</v>
       </c>
@@ -3877,11 +3797,9 @@
         <v>-232933.4603256621</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>28.5</v>
       </c>
@@ -3957,11 +3875,9 @@
         <v>-217062.4603256621</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>28.5</v>
       </c>
@@ -3998,11 +3914,9 @@
         <v>-217051.4603256621</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>28.5</v>
       </c>
@@ -4039,11 +3953,9 @@
         <v>-227758.9430256621</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>28.5</v>
       </c>
@@ -4080,11 +3992,9 @@
         <v>-247302.8206256621</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>28.5</v>
       </c>
@@ -4121,11 +4031,9 @@
         <v>-247291.8206256621</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>28.5</v>
       </c>
@@ -4162,11 +4070,9 @@
         <v>-247291.8206256621</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>28.5</v>
       </c>
@@ -4203,11 +4109,9 @@
         <v>-247291.8206256621</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>28.5</v>
       </c>
@@ -4829,11 +4733,9 @@
         <v>-330958.3427133333</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>28.5</v>
       </c>
@@ -4909,11 +4811,9 @@
         <v>-339333.9208133333</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>28.5</v>
       </c>
@@ -4989,11 +4889,9 @@
         <v>-339602.8556133333</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
         <v>28.5</v>
       </c>
@@ -6278,9 +6176,11 @@
         <v>-378755.8054133333</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J147" t="n">
         <v>28.5</v>
       </c>
@@ -6317,9 +6217,11 @@
         <v>-382075.3484133333</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J148" t="n">
         <v>28.5</v>
       </c>
@@ -6518,9 +6420,11 @@
         <v>-401842.4767133333</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J153" t="n">
         <v>28.5</v>
       </c>
@@ -6557,9 +6461,11 @@
         <v>-401842.4767133333</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>29</v>
+      </c>
       <c r="J154" t="n">
         <v>28.5</v>
       </c>
@@ -6637,9 +6543,11 @@
         <v>-397580.3364133333</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J156" t="n">
         <v>28.5</v>
       </c>
@@ -6676,9 +6584,11 @@
         <v>-412920.0443133332</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J157" t="n">
         <v>28.5</v>
       </c>
@@ -6715,9 +6625,11 @@
         <v>-412920.0443133332</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J158" t="n">
         <v>28.5</v>
       </c>
@@ -6754,9 +6666,11 @@
         <v>-400192.2361133333</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J159" t="n">
         <v>28.5</v>
       </c>
@@ -6793,9 +6707,11 @@
         <v>-400192.2361133333</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J160" t="n">
         <v>28.5</v>
       </c>
@@ -6832,9 +6748,11 @@
         <v>-430959.3664133333</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J161" t="n">
         <v>28.5</v>
       </c>
@@ -6871,9 +6789,11 @@
         <v>-430959.3664133333</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J162" t="n">
         <v>28.5</v>
       </c>
@@ -6910,9 +6830,11 @@
         <v>-430959.3664133333</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J163" t="n">
         <v>28.5</v>
       </c>
@@ -7113,9 +7035,11 @@
         <v>-546092.5064133332</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J168" t="n">
         <v>28.5</v>
       </c>
@@ -7357,9 +7281,11 @@
         <v>-579209.7068640182</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J174" t="n">
         <v>28.5</v>
       </c>
@@ -7396,9 +7322,11 @@
         <v>-579059.7068640182</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J175" t="n">
         <v>28.5</v>
       </c>
@@ -7435,9 +7363,11 @@
         <v>-634808.0123640182</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J176" t="n">
         <v>28.5</v>
       </c>
@@ -7474,9 +7404,11 @@
         <v>-634796.0123640182</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>29.5</v>
+      </c>
       <c r="J177" t="n">
         <v>28.5</v>
       </c>
@@ -7513,9 +7445,11 @@
         <v>-634796.0123640182</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J178" t="n">
         <v>28.5</v>
       </c>
@@ -7552,9 +7486,11 @@
         <v>-634796.0123640182</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J179" t="n">
         <v>28.5</v>
       </c>
@@ -7591,9 +7527,11 @@
         <v>-634796.0123640182</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J180" t="n">
         <v>28.5</v>
       </c>
@@ -7630,9 +7568,11 @@
         <v>-634785.0123640182</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J181" t="n">
         <v>28.5</v>
       </c>
@@ -7669,9 +7609,11 @@
         <v>-652825.3523640182</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J182" t="n">
         <v>28.5</v>
       </c>
@@ -7708,9 +7650,11 @@
         <v>-652814.3523640182</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J183" t="n">
         <v>28.5</v>
       </c>
@@ -7747,9 +7691,11 @@
         <v>-652814.3523640182</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J184" t="n">
         <v>28.5</v>
       </c>
@@ -7786,9 +7732,11 @@
         <v>-652814.3523640182</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J185" t="n">
         <v>28.5</v>
       </c>
@@ -7825,9 +7773,11 @@
         <v>-652955.7652640182</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J186" t="n">
         <v>28.5</v>
       </c>
@@ -7905,9 +7855,11 @@
         <v>-549933.3746640182</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J188" t="n">
         <v>28.5</v>
       </c>
@@ -7944,9 +7896,11 @@
         <v>-549933.3746640182</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J189" t="n">
         <v>28.5</v>
       </c>
@@ -7983,9 +7937,11 @@
         <v>-549922.3746640182</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J190" t="n">
         <v>28.5</v>
       </c>
@@ -8022,9 +7978,11 @@
         <v>-618686.1598640182</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J191" t="n">
         <v>28.5</v>
       </c>
@@ -8061,9 +8019,11 @@
         <v>-618675.1598640182</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J192" t="n">
         <v>28.5</v>
       </c>
@@ -8100,9 +8060,11 @@
         <v>-618663.1598640182</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J193" t="n">
         <v>28.5</v>
       </c>
@@ -8139,9 +8101,11 @@
         <v>-638532.1898640182</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J194" t="n">
         <v>28.5</v>
       </c>
@@ -8178,9 +8142,11 @@
         <v>-631543.3788640182</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J195" t="n">
         <v>28.5</v>
       </c>
@@ -8685,7 +8651,7 @@
         <v>-146823.3118640182</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
@@ -8693,13 +8659,15 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>1.11780701754386</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1.007017543859649</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8724,17 +8692,11 @@
         <v>-146823.3118640182</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8763,17 +8725,11 @@
         <v>124938.3453359818</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8802,17 +8758,11 @@
         <v>557120.7768271583</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8841,17 +8791,11 @@
         <v>557120.7768271583</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8880,17 +8824,11 @@
         <v>552224.2499271582</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8919,17 +8857,11 @@
         <v>538890.1092271582</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8961,14 +8893,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -9000,14 +8926,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -9039,14 +8959,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9075,17 +8989,11 @@
         <v>617889.5776271583</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9117,14 +9025,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9153,17 +9055,11 @@
         <v>530302.7901271583</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9192,17 +9088,11 @@
         <v>584699.6443829447</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9234,14 +9124,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9273,14 +9157,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9312,14 +9190,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9351,14 +9223,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9390,14 +9256,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9429,14 +9289,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9468,14 +9322,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9507,14 +9355,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9546,14 +9388,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9585,14 +9421,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9624,14 +9454,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9663,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9702,14 +9520,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9741,14 +9553,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9777,17 +9583,11 @@
         <v>779217.5161917683</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9819,14 +9619,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9858,14 +9652,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9897,14 +9685,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9933,23 +9715,15 @@
         <v>1010291.407591768</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
-        <v>1.209035087719298</v>
-      </c>
-      <c r="M240" t="n">
-        <v>1.007017543859649</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9974,7 +9748,7 @@
         <v>976084.4019917684</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -10007,7 +9781,7 @@
         <v>976055.2201917684</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -10040,7 +9814,7 @@
         <v>939328.2523917684</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -10073,7 +9847,7 @@
         <v>946943.2567917684</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -10106,7 +9880,7 @@
         <v>946943.2567917684</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -10139,7 +9913,7 @@
         <v>1112203.293891768</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10172,7 +9946,7 @@
         <v>1069710.816991769</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10205,7 +9979,7 @@
         <v>1125698.838591769</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10238,7 +10012,7 @@
         <v>1151073.531291769</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10271,7 +10045,7 @@
         <v>1119577.302991769</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10304,7 +10078,7 @@
         <v>1119577.302991769</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10337,7 +10111,7 @@
         <v>1097670.960791769</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10370,7 +10144,7 @@
         <v>1094047.269991769</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10403,7 +10177,7 @@
         <v>1090542.521991769</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10436,7 +10210,7 @@
         <v>1090542.521991769</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10469,7 +10243,7 @@
         <v>1049568.548391769</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10502,7 +10276,7 @@
         <v>1049579.548391769</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10535,7 +10309,7 @@
         <v>1045871.392891769</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10568,7 +10342,7 @@
         <v>1045871.392891769</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10601,7 +10375,7 @@
         <v>1066138.943716159</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10634,7 +10408,7 @@
         <v>1066138.943716159</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10667,7 +10441,7 @@
         <v>1069966.811991769</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10700,7 +10474,7 @@
         <v>1076008.365991769</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10733,7 +10507,7 @@
         <v>1076008.365991769</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10766,7 +10540,7 @@
         <v>1087611.998791769</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10799,7 +10573,7 @@
         <v>1063861.108891769</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10832,7 +10606,7 @@
         <v>1063861.108891769</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10865,7 +10639,7 @@
         <v>1063861.108891769</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10898,7 +10672,7 @@
         <v>1063861.108891769</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10931,7 +10705,7 @@
         <v>1037982.701667378</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10964,7 +10738,7 @@
         <v>1061872.708867379</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -11393,7 +11167,7 @@
         <v>460156.9044673785</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11426,7 +11200,7 @@
         <v>461096.9669673785</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11459,7 +11233,7 @@
         <v>454507.1691673785</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11492,7 +11266,7 @@
         <v>484614.9603673785</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11525,7 +11299,7 @@
         <v>475840.4530673785</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11558,7 +11332,7 @@
         <v>564347.5447673785</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11591,7 +11365,7 @@
         <v>576182.0785673785</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11624,7 +11398,7 @@
         <v>557059.3149673785</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11657,7 +11431,7 @@
         <v>551708.4250673786</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11690,7 +11464,7 @@
         <v>551719.4250673786</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11723,7 +11497,7 @@
         <v>549973.4250673786</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11756,7 +11530,7 @@
         <v>549973.4250673786</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11789,7 +11563,7 @@
         <v>549973.4250673786</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11822,7 +11596,7 @@
         <v>549973.4250673786</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11855,7 +11629,7 @@
         <v>550701.5643673786</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11888,7 +11662,7 @@
         <v>530671.7643673785</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11921,7 +11695,7 @@
         <v>537313.5610673785</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11954,7 +11728,7 @@
         <v>544345.6417673785</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11987,7 +11761,7 @@
         <v>543340.6417673785</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12020,7 +11794,7 @@
         <v>553836.8693673785</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12317,7 +12091,7 @@
         <v>682657.3541673785</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12350,7 +12124,7 @@
         <v>597834.3678673785</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12416,7 +12190,7 @@
         <v>614877.5418673785</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12845,7 +12619,7 @@
         <v>580512.4860673785</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12878,7 +12652,7 @@
         <v>580523.4860673785</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12944,7 +12718,7 @@
         <v>554906.6960673785</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13010,7 +12784,7 @@
         <v>540963.9227673785</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13076,7 +12850,7 @@
         <v>537073.6544673785</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13109,7 +12883,7 @@
         <v>537293.5297673785</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13142,7 +12916,7 @@
         <v>537304.5297673785</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13175,7 +12949,7 @@
         <v>535068.7681673785</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13208,7 +12982,7 @@
         <v>495424.2057673785</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13373,7 +13147,7 @@
         <v>453767.1369673785</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13406,7 +13180,7 @@
         <v>281671.5028673785</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13439,7 +13213,7 @@
         <v>281681.5968673785</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13472,7 +13246,7 @@
         <v>282045.0234673785</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -17267,7 +17041,7 @@
         <v>394105.5612079076</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17300,7 +17074,7 @@
         <v>394105.5612079076</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17333,7 +17107,7 @@
         <v>394105.5612079076</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17366,7 +17140,7 @@
         <v>407220.3369079076</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17399,7 +17173,7 @@
         <v>407354.5911079076</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18026,7 +17800,7 @@
         <v>432649.5052079078</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18059,7 +17833,7 @@
         <v>432630.0052079078</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18092,7 +17866,7 @@
         <v>494198.1452079078</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18455,7 +18229,7 @@
         <v>377105.6414079077</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18653,7 +18427,7 @@
         <v>330069.4524079077</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -22322,9 +22096,11 @@
         <v>-1159719.324992092</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -22337,6 +22113,6 @@
       <c r="M615" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-26 BackTest ETZ.xlsx
@@ -521,9 +521,11 @@
         <v>-121331.6124133333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J4" t="n">
         <v>28.5</v>
       </c>
@@ -2047,11 +2049,9 @@
         <v>-22939.87731333327</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>28.5</v>
       </c>
@@ -2127,11 +2127,9 @@
         <v>-23223.28871333327</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>28.5</v>
       </c>
@@ -2168,11 +2166,9 @@
         <v>-109035.1528133333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>28.5</v>
       </c>
@@ -2287,11 +2283,9 @@
         <v>-110576.5029133333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>28.5</v>
       </c>
@@ -2328,11 +2322,9 @@
         <v>-110566.5029133333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>28.5</v>
       </c>
@@ -2369,11 +2361,9 @@
         <v>-110566.5029133333</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>28.5</v>
       </c>
@@ -2449,11 +2439,9 @@
         <v>-113256.1429133333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>28.5</v>
       </c>
@@ -2763,11 +2751,9 @@
         <v>-226545.4310133333</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>28.5</v>
       </c>
@@ -2804,11 +2790,9 @@
         <v>-226545.4310133333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>28.5</v>
       </c>
@@ -2845,11 +2829,9 @@
         <v>-226509.4310133333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>28.5</v>
       </c>
@@ -2925,11 +2907,9 @@
         <v>-243898.9848133333</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>28.5</v>
       </c>
@@ -2966,11 +2946,9 @@
         <v>-267516.6113133333</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>28.5</v>
       </c>
@@ -3007,11 +2985,9 @@
         <v>-267782.0023133333</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>28.5</v>
       </c>
@@ -3089,11 +3065,9 @@
         <v>-255751.1688133333</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>28.5</v>
       </c>
@@ -3130,11 +3104,9 @@
         <v>-133590.8508256621</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>28.5</v>
       </c>
@@ -3522,11 +3494,9 @@
         <v>-219126.4603256621</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>28.5</v>
       </c>
@@ -6176,11 +6146,9 @@
         <v>-378755.8054133333</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>28.5</v>
       </c>
@@ -6217,11 +6185,9 @@
         <v>-382075.3484133333</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>28.5</v>
       </c>
@@ -6340,11 +6306,9 @@
         <v>-384370.7871133333</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>28.5</v>
       </c>
@@ -6748,11 +6712,9 @@
         <v>-430959.3664133333</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>28.5</v>
       </c>
@@ -8183,9 +8145,11 @@
         <v>-631543.3788640182</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J196" t="n">
         <v>28.5</v>
       </c>
@@ -8222,9 +8186,11 @@
         <v>-523133.5374640182</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J197" t="n">
         <v>28.5</v>
       </c>
@@ -8261,9 +8227,11 @@
         <v>-494804.7925640182</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J198" t="n">
         <v>28.5</v>
       </c>
@@ -8300,9 +8268,11 @@
         <v>-492446.7925640182</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>30.2</v>
+      </c>
       <c r="J199" t="n">
         <v>28.5</v>
       </c>
@@ -8339,9 +8309,11 @@
         <v>-471044.9061640182</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J200" t="n">
         <v>28.5</v>
       </c>
@@ -8378,9 +8350,11 @@
         <v>-471044.9061640182</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>30.5</v>
+      </c>
       <c r="J201" t="n">
         <v>28.5</v>
       </c>
@@ -8417,9 +8391,11 @@
         <v>-507812.7861640182</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>30.5</v>
+      </c>
       <c r="J202" t="n">
         <v>28.5</v>
       </c>
@@ -8456,9 +8432,11 @@
         <v>-430891.6714640182</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J203" t="n">
         <v>28.5</v>
       </c>
@@ -8495,9 +8473,11 @@
         <v>-332213.5772640182</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J204" t="n">
         <v>28.5</v>
       </c>
@@ -8651,7 +8631,7 @@
         <v>-146823.3118640182</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
@@ -8659,15 +8639,13 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1.11780701754386</v>
-      </c>
-      <c r="M208" t="n">
-        <v>1.007017543859649</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8692,11 +8670,17 @@
         <v>-146823.3118640182</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8725,11 +8709,17 @@
         <v>124938.3453359818</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8758,11 +8748,17 @@
         <v>557120.7768271583</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8791,11 +8787,17 @@
         <v>557120.7768271583</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8824,11 +8826,17 @@
         <v>552224.2499271582</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8857,11 +8865,17 @@
         <v>538890.1092271582</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8893,8 +8907,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8926,8 +8946,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8959,8 +8985,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8989,11 +9021,17 @@
         <v>617889.5776271583</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9025,8 +9063,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9055,11 +9099,17 @@
         <v>530302.7901271583</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9088,11 +9138,17 @@
         <v>584699.6443829447</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9124,8 +9180,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9157,8 +9219,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9190,8 +9258,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9223,8 +9297,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9256,8 +9336,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9289,8 +9375,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9322,8 +9414,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9355,8 +9453,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9388,8 +9492,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9421,8 +9531,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9454,8 +9570,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9487,8 +9609,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9520,8 +9648,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9553,8 +9687,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9583,11 +9723,17 @@
         <v>779217.5161917683</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9616,15 +9762,23 @@
         <v>934390.4303917683</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>1.209035087719298</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1.007017543859649</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9649,7 +9803,7 @@
         <v>1173781.659191768</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9682,7 +9836,7 @@
         <v>1035597.315091768</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9715,7 +9869,7 @@
         <v>1010291.407591768</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9748,7 +9902,7 @@
         <v>976084.4019917684</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9781,7 +9935,7 @@
         <v>976055.2201917684</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9814,7 +9968,7 @@
         <v>939328.2523917684</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9847,7 +10001,7 @@
         <v>946943.2567917684</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9880,7 +10034,7 @@
         <v>946943.2567917684</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9913,7 +10067,7 @@
         <v>1112203.293891768</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9946,7 +10100,7 @@
         <v>1069710.816991769</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9979,7 +10133,7 @@
         <v>1125698.838591769</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10012,7 +10166,7 @@
         <v>1151073.531291769</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10045,7 +10199,7 @@
         <v>1119577.302991769</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10078,7 +10232,7 @@
         <v>1119577.302991769</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -17800,7 +17954,7 @@
         <v>432649.5052079078</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17833,7 +17987,7 @@
         <v>432630.0052079078</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17866,7 +18020,7 @@
         <v>494198.1452079078</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -22057,17 +22211,11 @@
         <v>-1159719.324992092</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22096,17 +22244,11 @@
         <v>-1159719.324992092</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
